--- a/Work/データベース設計書/データベース設計書（pepeohana）.xlsx
+++ b/Work/データベース設計書/データベース設計書（pepeohana）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\データベース設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D673C775-27CA-4AF7-BA88-B19FFE92F3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDCB62-C026-428F-AE93-B89F2FD7060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="250">
   <si>
     <t>CREATE</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>UNIQUE,</t>
   </si>
   <si>
     <t>DATE,</t>
@@ -805,10 +802,6 @@
   </si>
   <si>
     <t>デフォルト</t>
-  </si>
-  <si>
-    <t>デフォルト</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>varchar(50)</t>
@@ -866,6 +859,37 @@
     <rPh sb="6" eb="9">
       <t>セッケイショ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY,</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UNIQUE,</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PRIMARY</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1261,7 +1285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1678,6 +1702,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1807,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,16 +1977,34 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2266,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D71EB1-3A94-4EF2-8308-803A7A4D3E95}">
   <dimension ref="B3:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -2281,499 +2384,499 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="B3" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
     </row>
     <row r="37" spans="2:13" ht="33" x14ac:dyDescent="0.4">
-      <c r="B37" s="30"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
     </row>
     <row r="38" spans="2:13" ht="33" x14ac:dyDescent="0.4">
-      <c r="B38" s="31"/>
+      <c r="B38" s="30"/>
     </row>
     <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2792,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2804,80 +2907,91 @@
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" customWidth="1"/>
+    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="G1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="S2" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="T2" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -2885,51 +2999,54 @@
         <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="E3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="H3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="18">
+      <c r="L3" s="33"/>
+      <c r="M3" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="18">
         <v>1</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>36</v>
@@ -2937,41 +3054,38 @@
       <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="E4" s="34"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="12">
         <v>2</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>239</v>
-      </c>
       <c r="J4" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="L4" s="34"/>
+      <c r="M4" s="14"/>
+      <c r="O4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S4" s="34"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2984,41 +3098,44 @@
       <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="12">
+      <c r="F5" s="14"/>
+      <c r="H5" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14"/>
+      <c r="O5" s="12">
         <v>3</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>239</v>
-      </c>
       <c r="P5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="S5" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -3031,41 +3148,44 @@
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="24">
+      <c r="F6" s="14"/>
+      <c r="H6" s="24">
         <v>4</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="I6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="L6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="26"/>
+      <c r="O6" s="12">
         <v>4</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="S6" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -3078,31 +3198,34 @@
       <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="F7" s="14"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="12">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="12">
         <v>5</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="S7" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -3115,26 +3238,30 @@
       <c r="D8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="12">
+      <c r="F8" s="14"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="O8" s="12">
         <v>6</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="13" t="s">
+      <c r="P8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="R8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S8" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -3147,26 +3274,30 @@
       <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="15">
+      <c r="F9" s="14"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="O9" s="15">
         <v>7</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="Q9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="R9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="S9" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -3179,16 +3310,18 @@
       <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="F10" s="14"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -3201,11 +3334,14 @@
       <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="F11" s="14"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -3218,11 +3354,14 @@
       <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="E12" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -3235,11 +3374,12 @@
       <c r="D13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="E13" s="34"/>
+      <c r="F13" s="14"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -3252,9 +3392,12 @@
       <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="35">
         <v>0</v>
       </c>
+      <c r="F14" s="17"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -3267,7 +3410,7 @@
   <dimension ref="A1:Q127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3284,7 +3427,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -3310,13 +3453,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -3328,10 +3471,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -3343,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -3356,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -3373,7 +3516,7 @@
     <row r="8" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -3402,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -3417,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -3430,7 +3573,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -3443,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -3453,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -3469,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -3482,7 +3625,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -3492,10 +3635,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -3508,7 +3651,7 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -3541,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -3583,32 +3726,32 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -3624,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -3637,14 +3780,14 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -3664,24 +3807,24 @@
     <row r="34" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -3690,129 +3833,129 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>65</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>66</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>69</v>
-      </c>
-      <c r="I43" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>72</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>73</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>74</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -3824,308 +3967,308 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
         <v>81</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>82</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>83</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>84</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>85</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>86</v>
-      </c>
-      <c r="I51" t="s">
-        <v>87</v>
       </c>
       <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
         <v>88</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>90</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>91</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>92</v>
-      </c>
-      <c r="I52" t="s">
-        <v>93</v>
       </c>
       <c r="O52" s="8"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
         <v>94</v>
       </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>95</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>96</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>97</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>98</v>
-      </c>
-      <c r="J53" t="s">
-        <v>99</v>
       </c>
       <c r="O53" s="8"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
         <v>100</v>
       </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>101</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>102</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>103</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" t="s">
         <v>104</v>
-      </c>
-      <c r="J54" t="s">
-        <v>103</v>
-      </c>
-      <c r="K54" t="s">
-        <v>105</v>
       </c>
       <c r="O54" s="8"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
         <v>106</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>107</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" t="s">
         <v>108</v>
       </c>
-      <c r="F55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>109</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>110</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>111</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>112</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>113</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>114</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>118</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>119</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>120</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>121</v>
-      </c>
-      <c r="J56" t="s">
-        <v>122</v>
       </c>
       <c r="O56" s="8"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
         <v>123</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" t="s">
         <v>124</v>
       </c>
-      <c r="H57" t="s">
-        <v>114</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>125</v>
-      </c>
-      <c r="J57" t="s">
-        <v>126</v>
       </c>
       <c r="O57" s="8"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" t="s">
         <v>127</v>
       </c>
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>128</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>129</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>130</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>131</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>132</v>
-      </c>
-      <c r="K58" t="s">
-        <v>133</v>
       </c>
       <c r="O58" s="8"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" t="s">
         <v>134</v>
       </c>
-      <c r="F59" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59" t="s">
         <v>135</v>
       </c>
-      <c r="I59" t="s">
-        <v>114</v>
-      </c>
-      <c r="J59" t="s">
-        <v>136</v>
-      </c>
       <c r="K59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O59" s="8"/>
     </row>
     <row r="60" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9"/>
       <c r="B60" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I60" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="K60" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
@@ -4135,12 +4278,12 @@
     <row r="61" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="62" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4162,45 +4305,45 @@
     <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
         <v>145</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>146</v>
-      </c>
-      <c r="D64" t="s">
-        <v>147</v>
       </c>
       <c r="Q64" s="8"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q65" s="8"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" t="s">
         <v>149</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>150</v>
       </c>
       <c r="E66">
         <v>18</v>
       </c>
       <c r="F66" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" t="s">
         <v>151</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>152</v>
-      </c>
-      <c r="I66" t="s">
-        <v>153</v>
       </c>
       <c r="J66" t="s">
         <v>6</v>
@@ -4210,45 +4353,45 @@
     <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q67" s="8"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q68" s="8"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
         <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>150</v>
       </c>
       <c r="E69">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J69" t="s">
         <v>6</v>
@@ -4258,45 +4401,45 @@
     <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="8"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q71" s="8"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
         <v>149</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>150</v>
       </c>
       <c r="E72">
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J72" t="s">
         <v>6</v>
@@ -4306,45 +4449,45 @@
     <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q73" s="8"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q74" s="8"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" t="s">
         <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" t="s">
-        <v>150</v>
       </c>
       <c r="E75">
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75" t="s">
         <v>6</v>
@@ -4354,45 +4497,45 @@
     <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="s">
         <v>149</v>
-      </c>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" t="s">
-        <v>150</v>
       </c>
       <c r="E78">
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J78" t="s">
         <v>6</v>
@@ -4402,45 +4545,45 @@
     <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
         <v>149</v>
-      </c>
-      <c r="C81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" t="s">
-        <v>150</v>
       </c>
       <c r="E81">
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J81" t="s">
         <v>6</v>
@@ -4450,45 +4593,45 @@
     <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q82" s="8"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q83" s="8"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" t="s">
         <v>149</v>
-      </c>
-      <c r="C84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" t="s">
-        <v>150</v>
       </c>
       <c r="E84">
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J84" t="s">
         <v>6</v>
@@ -4498,45 +4641,45 @@
     <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q85" s="8"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" t="s">
         <v>149</v>
-      </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" t="s">
-        <v>150</v>
       </c>
       <c r="E87">
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J87" t="s">
         <v>6</v>
@@ -4546,45 +4689,45 @@
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q88" s="8"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q89" s="8"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" t="s">
         <v>149</v>
-      </c>
-      <c r="C90" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" t="s">
-        <v>150</v>
       </c>
       <c r="E90">
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J90" t="s">
         <v>6</v>
@@ -4594,188 +4737,188 @@
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q91" s="8"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q92" s="8"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q93" s="8"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q94" s="8"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q95" s="8"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E96">
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q96" s="8"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" t="s">
         <v>149</v>
-      </c>
-      <c r="C97" t="s">
-        <v>176</v>
-      </c>
-      <c r="D97" t="s">
-        <v>150</v>
       </c>
       <c r="E97">
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q97" s="8"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q98" s="8"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q99" s="8"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" t="s">
         <v>149</v>
-      </c>
-      <c r="C100" t="s">
-        <v>174</v>
-      </c>
-      <c r="D100" t="s">
-        <v>150</v>
       </c>
       <c r="E100">
         <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q100" s="8"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" t="s">
         <v>149</v>
-      </c>
-      <c r="C101" t="s">
-        <v>176</v>
-      </c>
-      <c r="D101" t="s">
-        <v>150</v>
       </c>
       <c r="E101">
         <v>18</v>
       </c>
       <c r="F101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q101" s="8"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q102" s="8"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" t="s">
         <v>180</v>
-      </c>
-      <c r="C103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" t="s">
-        <v>181</v>
       </c>
       <c r="Q103" s="8"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" t="s">
         <v>182</v>
-      </c>
-      <c r="C104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" t="s">
-        <v>183</v>
       </c>
       <c r="Q104" s="8"/>
     </row>
@@ -4786,73 +4929,73 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" t="s">
         <v>185</v>
-      </c>
-      <c r="E106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" t="s">
-        <v>186</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J106" t="s">
+        <v>186</v>
+      </c>
+      <c r="K106" t="s">
+        <v>145</v>
+      </c>
+      <c r="L106" t="s">
         <v>187</v>
-      </c>
-      <c r="K106" t="s">
-        <v>146</v>
-      </c>
-      <c r="L106" t="s">
-        <v>188</v>
       </c>
       <c r="Q106" s="8"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q107" s="8"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q108" s="8"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" t="s">
         <v>149</v>
-      </c>
-      <c r="C109" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" t="s">
-        <v>150</v>
       </c>
       <c r="E109">
         <v>18</v>
       </c>
       <c r="F109" t="s">
+        <v>188</v>
+      </c>
+      <c r="H109" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" t="s">
         <v>189</v>
-      </c>
-      <c r="H109" t="s">
-        <v>159</v>
-      </c>
-      <c r="I109" t="s">
-        <v>190</v>
       </c>
       <c r="J109" t="s">
         <v>5</v>
@@ -4861,62 +5004,62 @@
         <v>6</v>
       </c>
       <c r="L109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q109" s="8"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
         <v>192</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>193</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>194</v>
-      </c>
-      <c r="E110" t="s">
-        <v>195</v>
       </c>
       <c r="Q110" s="8"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" t="s">
         <v>196</v>
       </c>
-      <c r="C111" t="s">
-        <v>193</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>197</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>198</v>
       </c>
-      <c r="F111" t="s">
+      <c r="H111" t="s">
         <v>199</v>
-      </c>
-      <c r="H111" t="s">
-        <v>200</v>
       </c>
       <c r="Q111" s="8"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q112" s="8"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -4926,214 +5069,214 @@
     <row r="114" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q114" s="8"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q115" s="8"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" t="s">
         <v>203</v>
-      </c>
-      <c r="B116" t="s">
-        <v>204</v>
       </c>
       <c r="Q116" s="8"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" t="s">
         <v>205</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>206</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
+        <v>149</v>
+      </c>
+      <c r="I117" t="s">
+        <v>181</v>
+      </c>
+      <c r="J117" t="s">
+        <v>188</v>
+      </c>
+      <c r="K117" t="s">
         <v>207</v>
       </c>
-      <c r="H117" t="s">
-        <v>150</v>
-      </c>
-      <c r="I117" t="s">
-        <v>182</v>
-      </c>
-      <c r="J117" t="s">
-        <v>189</v>
-      </c>
-      <c r="K117" t="s">
-        <v>208</v>
-      </c>
       <c r="L117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M117">
         <v>18</v>
       </c>
       <c r="N117" t="s">
+        <v>208</v>
+      </c>
+      <c r="O117" t="s">
+        <v>175</v>
+      </c>
+      <c r="P117" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q117" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="O117" t="s">
-        <v>176</v>
-      </c>
-      <c r="P117" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q117" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A118" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" t="s">
         <v>203</v>
-      </c>
-      <c r="B118" t="s">
-        <v>204</v>
       </c>
       <c r="Q118" s="8"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D119" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119" t="s">
+        <v>205</v>
+      </c>
+      <c r="F119" t="s">
         <v>211</v>
       </c>
-      <c r="E119" t="s">
-        <v>206</v>
-      </c>
-      <c r="F119" t="s">
-        <v>212</v>
-      </c>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q119" s="8"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" t="s">
         <v>149</v>
-      </c>
-      <c r="C120" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" t="s">
-        <v>150</v>
       </c>
       <c r="E120">
         <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q120" s="8"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" t="s">
+        <v>175</v>
+      </c>
+      <c r="D121" t="s">
         <v>149</v>
-      </c>
-      <c r="C121" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" t="s">
-        <v>150</v>
       </c>
       <c r="E121">
         <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q121" s="8"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q122" s="8"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A123" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q123" s="8"/>
     </row>
     <row r="124" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="9"/>
       <c r="B124" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D124" s="10">
         <v>18</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I124" s="10">
         <v>18</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M124" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -5143,27 +5286,27 @@
     <row r="125" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127" t="s">
         <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Work/データベース設計書/データベース設計書（pepeohana）.xlsx
+++ b/Work/データベース設計書/データベース設計書（pepeohana）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\データベース設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\pepe3\pepe_other_file\Work\データベース設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDCB62-C026-428F-AE93-B89F2FD7060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282E65B-0C17-4017-BDF6-204869FC4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="7" r:id="rId1"/>
@@ -1892,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1986,26 +1986,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2384,230 +2381,230 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="27"/>
@@ -2897,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2948,7 +2945,7 @@
       <c r="D2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>236</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -2966,7 +2963,7 @@
       <c r="K2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>236</v>
       </c>
       <c r="M2" s="23" t="s">
@@ -2984,7 +2981,7 @@
       <c r="R2" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>236</v>
       </c>
       <c r="T2" s="23" t="s">
@@ -3020,7 +3017,7 @@
       <c r="K3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="33"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="20" t="s">
         <v>249</v>
       </c>
@@ -3054,7 +3051,7 @@
       <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="14"/>
       <c r="H4" s="12">
         <v>2</v>
@@ -3068,7 +3065,7 @@
       <c r="K4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="14"/>
       <c r="O4" s="12">
         <v>2</v>
@@ -3082,7 +3079,7 @@
       <c r="R4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="34"/>
+      <c r="S4" s="33"/>
       <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
@@ -3098,7 +3095,7 @@
       <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="14"/>
@@ -3114,7 +3111,7 @@
       <c r="K5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="14"/>
@@ -3130,7 +3127,7 @@
       <c r="R5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="33" t="s">
         <v>33</v>
       </c>
       <c r="T5" s="14"/>
@@ -3148,7 +3145,7 @@
       <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="14"/>
@@ -3164,7 +3161,7 @@
       <c r="K6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="35" t="s">
         <v>33</v>
       </c>
       <c r="M6" s="26"/>
@@ -3180,7 +3177,7 @@
       <c r="R6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="T6" s="14"/>
@@ -3198,7 +3195,7 @@
       <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="14"/>
@@ -3220,7 +3217,7 @@
       <c r="R7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="33" t="s">
         <v>33</v>
       </c>
       <c r="T7" s="14"/>
@@ -3238,12 +3235,10 @@
       <c r="D8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
       <c r="O8" s="12">
         <v>6</v>
       </c>
@@ -3256,7 +3251,7 @@
       <c r="R8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="S8" s="33" t="s">
         <v>248</v>
       </c>
       <c r="T8" s="14"/>
@@ -3274,12 +3269,10 @@
       <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
       <c r="O9" s="15">
         <v>7</v>
       </c>
@@ -3292,7 +3285,7 @@
       <c r="R9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="34">
         <v>0</v>
       </c>
       <c r="T9" s="17"/>
@@ -3310,12 +3303,10 @@
       <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3334,12 +3325,10 @@
       <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
@@ -3354,12 +3343,10 @@
       <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
@@ -3374,10 +3361,8 @@
       <c r="D13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="14"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -3392,12 +3377,10 @@
       <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>0</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
